--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -456,7 +456,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -464,34 +464,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="33.33203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3237,273 +3238,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E5216B3-E95B-4B39-8B96-2F95D877ECAE}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23D7EF7-F6D0-432E-801B-AA0302A62FCC}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1849E3-A4B6-4400-895E-6D8FC4BCB7E3}"/>
 </file>
--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Procura</t>
   </si>
   <si>
@@ -95,6 +107,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -396,6 +411,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -481,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -493,6 +511,7 @@
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -514,245 +533,284 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -774,2465 +832,2837 @@
       <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,67 +32,70 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Procura</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Procura</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -833,2836 +836,2836 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Procura</t>
@@ -416,7 +416,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -514,7 +514,7 @@
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Atto notarile consenso</t>
   </si>
   <si>
     <t>Formula</t>
@@ -502,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -634,10 +637,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -657,7 +660,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -680,13 +683,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -703,7 +706,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -726,7 +729,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -749,7 +752,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -772,7 +775,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -795,7 +798,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -817,2855 +820,2878 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>32</v>
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -505,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1218,7 +1224,7 @@
         <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>43</v>
@@ -1310,7 +1316,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>43</v>
@@ -1425,7 +1431,7 @@
         <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>43</v>
@@ -1497,10 +1503,10 @@
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1514,13 +1520,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>91</v>
@@ -1534,22 +1540,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>33</v>
@@ -1557,22 +1563,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>33</v>
@@ -1580,19 +1586,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1609,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1632,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1655,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1678,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1695,22 +1701,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>33</v>
@@ -1718,22 +1724,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>33</v>
@@ -1741,22 +1747,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1764,22 +1770,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -1787,22 +1793,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -1810,19 +1816,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1839,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1862,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1879,22 +1885,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>33</v>
@@ -1902,19 +1908,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1931,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
@@ -1948,22 +1954,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -1971,22 +1977,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>33</v>
@@ -1994,22 +2000,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>33</v>
@@ -2017,19 +2023,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2040,22 +2046,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>33</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2086,22 +2092,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>33</v>
@@ -2109,19 +2115,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2138,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2161,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2184,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2201,22 +2207,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>33</v>
@@ -2224,19 +2230,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2253,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
@@ -2270,19 +2276,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2293,22 +2299,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>33</v>
@@ -2316,22 +2322,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>33</v>
@@ -2339,19 +2345,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2368,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2385,22 +2391,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>33</v>
@@ -2408,19 +2414,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2431,22 +2437,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>33</v>
@@ -2454,19 +2460,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>21</v>
@@ -2477,19 +2483,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2500,22 +2506,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>33</v>
@@ -2523,22 +2529,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>33</v>
@@ -2549,16 +2555,16 @@
         <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,7 +2578,7 @@
         <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -2581,7 +2587,7 @@
         <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2595,16 +2601,16 @@
         <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2615,10 +2621,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2627,7 +2633,7 @@
         <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2638,19 +2644,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2667,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2684,16 +2690,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>105</v>
@@ -2707,10 +2713,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
@@ -2719,7 +2725,7 @@
         <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2730,19 +2736,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2753,19 +2759,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2776,19 +2782,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2799,19 +2805,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2822,19 +2828,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2845,19 +2851,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2868,10 +2874,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2880,7 +2886,7 @@
         <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2891,10 +2897,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2903,7 +2909,7 @@
         <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2914,10 +2920,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2926,7 +2932,7 @@
         <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2937,19 +2943,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2960,19 +2966,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2983,19 +2989,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3006,19 +3012,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3029,19 +3035,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3052,19 +3058,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3075,19 +3081,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3098,599 +3104,691 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -425,7 +425,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -523,7 +526,7 @@
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3682,7 +3685,7 @@
         <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -3702,10 +3705,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
@@ -3714,7 +3717,7 @@
         <v>90</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3725,10 +3728,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3737,7 +3740,7 @@
         <v>90</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>23</v>
@@ -3748,10 +3751,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3760,7 +3763,7 @@
         <v>31</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3771,10 +3774,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -3783,7 +3786,7 @@
         <v>102</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3685,7 +3682,7 @@
         <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -3705,10 +3702,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
@@ -3717,7 +3714,7 @@
         <v>90</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3728,10 +3725,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3740,7 +3737,7 @@
         <v>90</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>23</v>
@@ -3751,10 +3748,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3763,7 +3760,7 @@
         <v>31</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3774,10 +3771,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -3786,7 +3783,7 @@
         <v>102</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3682,7 +3685,7 @@
         <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -3702,10 +3705,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
@@ -3714,7 +3717,7 @@
         <v>90</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3725,10 +3728,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3737,7 +3740,7 @@
         <v>90</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>23</v>
@@ -3748,10 +3751,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3760,7 +3763,7 @@
         <v>31</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3771,10 +3774,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -3783,7 +3786,7 @@
         <v>102</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -303,6 +303,36 @@
   </si>
   <si>
     <t>7,21</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -514,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -524,7 +554,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2095,22 +2125,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>33</v>
@@ -2118,22 +2148,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2141,19 +2171,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,22 +2194,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>33</v>
@@ -2187,22 +2217,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>33</v>
@@ -2210,22 +2240,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>33</v>
@@ -2233,19 +2263,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,22 +2286,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>33</v>
@@ -2279,19 +2309,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,22 +2332,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>33</v>
@@ -2325,22 +2355,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>33</v>
@@ -2348,19 +2378,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2371,22 +2401,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>33</v>
@@ -2394,19 +2424,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2417,22 +2447,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>33</v>
@@ -2440,22 +2470,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>33</v>
@@ -2463,22 +2493,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>33</v>
@@ -2486,19 +2516,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2509,22 +2539,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>33</v>
@@ -2532,22 +2562,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>33</v>
@@ -2555,19 +2585,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2578,22 +2608,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>33</v>
@@ -2601,19 +2631,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2624,22 +2654,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>33</v>
@@ -2647,22 +2677,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2670,19 +2700,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2723,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2746,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2769,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2762,22 +2792,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>33</v>
@@ -2785,19 +2815,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2808,22 +2838,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>33</v>
@@ -2831,22 +2861,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2854,19 +2884,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2877,19 +2907,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2930,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2953,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2976,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2999,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2992,16 +3022,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>117</v>
@@ -3015,19 +3045,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3068,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3091,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3084,19 +3114,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3107,19 +3137,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3130,19 +3160,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3153,19 +3183,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3176,622 +3206,944 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E142" s="2" t="s">
+      <c r="G146" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -3212,7 +3212,7 @@
         <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>112</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -155,6 +155,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -209,13 +215,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1073,7 +1079,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>43</v>
@@ -1165,7 +1171,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>43</v>
@@ -1280,7 +1286,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>43</v>
@@ -1303,7 +1309,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>43</v>
@@ -1372,7 +1378,7 @@
         <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>43</v>
@@ -1487,7 +1493,7 @@
         <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>43</v>
@@ -1559,10 +1565,10 @@
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1576,13 +1582,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>93</v>
@@ -1596,22 +1602,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>33</v>
@@ -1619,22 +1625,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>33</v>
@@ -1642,19 +1648,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1665,19 +1671,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1694,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1711,19 +1717,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1740,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1757,22 +1763,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>33</v>
@@ -1780,19 +1786,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1809,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>21</v>
@@ -1826,22 +1832,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -1849,22 +1855,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1872,22 +1878,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1895,19 +1901,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1924,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1947,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1964,22 +1970,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>33</v>
@@ -1987,19 +1993,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2016,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2033,22 +2039,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>33</v>
@@ -2056,22 +2062,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>33</v>
@@ -2079,22 +2085,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>33</v>
@@ -2102,19 +2108,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2148,22 +2154,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>21</v>
@@ -2217,22 +2223,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>33</v>
@@ -2240,22 +2246,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>33</v>
@@ -2263,22 +2269,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2286,22 +2292,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>33</v>
@@ -2309,19 +2315,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2338,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2401,22 +2407,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>33</v>
@@ -2424,19 +2430,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2447,22 +2453,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>33</v>
@@ -2470,19 +2476,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>21</v>
@@ -2493,19 +2499,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2516,22 +2522,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>33</v>
@@ -2539,22 +2545,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>33</v>
@@ -2562,19 +2568,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2591,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2608,22 +2614,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>33</v>
@@ -2631,19 +2637,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2654,22 +2660,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>33</v>
@@ -2677,19 +2683,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>21</v>
@@ -2700,19 +2706,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2723,22 +2729,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2746,22 +2752,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2769,19 +2775,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2792,22 +2798,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>33</v>
@@ -2815,19 +2821,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2838,22 +2844,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>33</v>
@@ -2861,19 +2867,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>21</v>
@@ -2887,7 +2893,7 @@
         <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2896,7 +2902,7 @@
         <v>110</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2910,19 +2916,19 @@
         <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -2933,19 +2939,19 @@
         <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -2953,10 +2959,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2965,7 +2971,7 @@
         <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2976,19 +2982,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2999,19 +3005,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3022,16 +3028,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>117</v>
@@ -3045,19 +3051,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3068,19 +3074,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3091,19 +3097,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3114,19 +3120,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3137,19 +3143,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3160,19 +3166,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3183,19 +3189,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3206,19 +3212,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3229,19 +3235,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3252,19 +3258,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3275,19 +3281,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3298,19 +3304,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3321,10 +3327,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -3333,7 +3339,7 @@
         <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3344,10 +3350,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3356,7 +3362,7 @@
         <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3367,19 +3373,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3390,19 +3396,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3413,19 +3419,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3436,19 +3442,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3459,19 +3465,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3482,19 +3488,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3505,19 +3511,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3528,622 +3534,737 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B156" s="2" t="s">
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E156" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1355,7 +1361,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>43</v>
@@ -1378,7 +1384,7 @@
         <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>43</v>
@@ -1516,7 +1522,7 @@
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>43</v>
@@ -1588,10 +1594,10 @@
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1605,13 +1611,13 @@
         <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>95</v>
@@ -1625,22 +1631,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>33</v>
@@ -1648,22 +1654,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>33</v>
@@ -1671,19 +1677,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1700,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1723,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1746,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1809,22 +1815,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -1832,22 +1838,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -1855,22 +1861,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1878,19 +1884,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>21</v>
@@ -1901,22 +1907,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>33</v>
@@ -1924,19 +1930,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1953,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1970,22 +1976,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>33</v>
@@ -1993,19 +1999,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2022,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2039,19 +2045,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2085,22 +2091,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>33</v>
@@ -2108,22 +2114,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2131,22 +2137,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>33</v>
@@ -2154,19 +2160,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2183,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2200,22 +2206,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>33</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>21</v>
@@ -2269,22 +2275,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2292,22 +2298,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>33</v>
@@ -2315,22 +2321,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>33</v>
@@ -2338,22 +2344,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>33</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2413,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2436,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2459,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2476,22 +2482,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>33</v>
@@ -2499,19 +2505,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2528,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>21</v>
@@ -2545,22 +2551,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>33</v>
@@ -2568,22 +2574,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>33</v>
@@ -2591,22 +2597,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>33</v>
@@ -2614,19 +2620,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2643,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2660,22 +2666,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>33</v>
@@ -2683,22 +2689,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2706,22 +2712,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>33</v>
@@ -2729,22 +2735,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2752,19 +2758,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>21</v>
@@ -2775,19 +2781,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2798,22 +2804,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>33</v>
@@ -2821,22 +2827,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>33</v>
@@ -2844,19 +2850,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2867,22 +2873,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2890,19 +2896,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2913,22 +2919,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -2936,19 +2942,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>21</v>
@@ -2962,7 +2968,7 @@
         <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2971,7 +2977,7 @@
         <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2985,19 +2991,19 @@
         <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3008,19 +3014,19 @@
         <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3028,10 +3034,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3040,7 +3046,7 @@
         <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3051,19 +3057,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3074,19 +3080,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3097,19 +3103,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3126,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3143,10 +3149,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -3155,7 +3161,7 @@
         <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3166,19 +3172,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3189,19 +3195,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3212,19 +3218,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3235,19 +3241,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3258,19 +3264,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3281,19 +3287,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3304,19 +3310,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3327,19 +3333,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3350,19 +3356,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3373,19 +3379,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3396,19 +3402,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3419,10 +3425,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3431,7 +3437,7 @@
         <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3442,10 +3448,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3454,7 +3460,7 @@
         <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3465,19 +3471,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3488,19 +3494,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3511,19 +3517,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3534,19 +3540,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3557,19 +3563,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3580,19 +3586,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3603,19 +3609,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3626,645 +3632,737 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G157" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B161" s="2" t="s">
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E161" s="2" t="s">
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -556,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1545,7 +1551,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>43</v>
@@ -1617,10 +1623,10 @@
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1634,13 +1640,13 @@
         <v>40</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>97</v>
@@ -1654,22 +1660,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>33</v>
@@ -1677,22 +1683,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>33</v>
@@ -1700,19 +1706,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1723,19 +1729,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1752,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1769,19 +1775,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1821,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1838,22 +1844,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -1861,22 +1867,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1884,22 +1890,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1907,19 +1913,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>21</v>
@@ -1930,22 +1936,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>33</v>
@@ -1953,19 +1959,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1976,22 +1982,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>33</v>
@@ -1999,22 +2005,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -2022,19 +2028,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2045,19 +2051,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2074,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2091,19 +2097,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2120,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2137,22 +2143,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>33</v>
@@ -2160,22 +2166,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2183,22 +2189,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>33</v>
@@ -2206,19 +2212,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2235,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2252,22 +2258,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>33</v>
@@ -2275,19 +2281,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2304,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
@@ -2321,22 +2327,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>33</v>
@@ -2344,22 +2350,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>33</v>
@@ -2367,22 +2373,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>33</v>
@@ -2390,22 +2396,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>33</v>
@@ -2413,19 +2419,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2442,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2465,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2488,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2511,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2528,22 +2534,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>33</v>
@@ -2551,19 +2557,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2580,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>21</v>
@@ -2597,22 +2603,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>33</v>
@@ -2620,22 +2626,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>33</v>
@@ -2643,22 +2649,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>33</v>
@@ -2666,22 +2672,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>33</v>
@@ -2689,19 +2695,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2712,19 +2718,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>21</v>
@@ -2735,22 +2741,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2758,22 +2764,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2781,22 +2787,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2804,22 +2810,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>33</v>
@@ -2827,19 +2833,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>21</v>
@@ -2850,19 +2856,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2873,22 +2879,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2896,22 +2902,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -2919,19 +2925,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2942,22 +2948,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -2965,19 +2971,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2988,22 +2994,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3011,19 +3017,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>21</v>
@@ -3037,7 +3043,7 @@
         <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3046,7 +3052,7 @@
         <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3060,19 +3066,19 @@
         <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>33</v>
@@ -3083,19 +3089,19 @@
         <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3103,10 +3109,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3115,7 +3121,7 @@
         <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3132,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3155,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3178,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3195,19 +3201,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3218,10 +3224,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
@@ -3230,7 +3236,7 @@
         <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3241,19 +3247,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3264,19 +3270,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3287,19 +3293,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3310,19 +3316,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3333,19 +3339,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3356,19 +3362,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3379,19 +3385,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3402,19 +3408,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3425,19 +3431,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3448,19 +3454,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3471,19 +3477,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3494,10 +3500,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3506,7 +3512,7 @@
         <v>116</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3517,10 +3523,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3529,7 +3535,7 @@
         <v>116</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3540,19 +3546,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3563,19 +3569,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3586,19 +3592,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3609,19 +3615,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3632,19 +3638,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3661,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3678,19 +3684,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3701,668 +3707,760 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G161" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B165" s="2" t="s">
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E165" s="2" t="s">
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="196">
   <si>
     <t>Sezione</t>
   </si>
@@ -134,6 +134,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -209,9 +299,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -314,6 +401,15 @@
     <t>datiEssenzialiProcura</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -368,9 +464,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -476,9 +569,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -504,6 +594,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -562,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
@@ -1019,22 +1115,22 @@
         <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1042,22 +1138,22 @@
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -1065,22 +1161,22 @@
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -1088,22 +1184,22 @@
         <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -1111,22 +1207,22 @@
         <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1134,22 +1230,22 @@
         <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -1157,22 +1253,22 @@
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1276,22 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -1203,22 +1299,22 @@
         <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -1226,22 +1322,22 @@
         <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -1249,22 +1345,22 @@
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1272,22 +1368,22 @@
         <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -1295,39 +1391,39 @@
         <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1338,19 +1434,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1361,19 +1457,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1384,19 +1480,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1407,19 +1503,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1430,19 +1526,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1453,19 +1549,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1476,19 +1572,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1499,19 +1595,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1522,19 +1618,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1545,19 +1641,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1568,19 +1664,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1591,19 +1687,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1710,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1733,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1756,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1683,22 +1779,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>33</v>
@@ -1706,19 +1802,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1825,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1848,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1871,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1894,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1917,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1940,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1867,22 +1963,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1890,19 +1986,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1913,22 +2009,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>33</v>
@@ -1936,22 +2032,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>33</v>
@@ -1959,19 +2055,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1982,620 +2078,620 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>33</v>
@@ -2603,19 +2699,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2626,22 +2722,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>33</v>
@@ -2649,22 +2745,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>33</v>
@@ -2672,19 +2768,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2791,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2718,22 +2814,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>33</v>
@@ -2741,22 +2837,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2764,22 +2860,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2787,22 +2883,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2810,22 +2906,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>33</v>
@@ -2833,19 +2929,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>21</v>
@@ -2856,19 +2952,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2879,22 +2975,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2902,19 +2998,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>21</v>
@@ -2925,22 +3021,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -2948,19 +3044,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2971,22 +3067,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -2994,19 +3090,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3113,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>21</v>
@@ -3040,19 +3136,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3063,19 +3159,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>21</v>
@@ -3086,19 +3182,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>21</v>
@@ -3109,19 +3205,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3132,19 +3228,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3155,19 +3251,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3178,19 +3274,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3201,22 +3297,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3224,19 +3320,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3247,22 +3343,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>33</v>
@@ -3270,22 +3366,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>33</v>
@@ -3293,22 +3389,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>33</v>
@@ -3316,19 +3412,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3339,19 +3435,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3362,19 +3458,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3385,19 +3481,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3408,19 +3504,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3431,19 +3527,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3454,19 +3550,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3477,22 +3573,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>33</v>
@@ -3500,19 +3596,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3523,22 +3619,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>33</v>
@@ -3546,22 +3642,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>33</v>
@@ -3569,19 +3665,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3592,19 +3688,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3615,22 +3711,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>33</v>
@@ -3638,22 +3734,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>33</v>
@@ -3661,19 +3757,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3684,22 +3780,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>33</v>
@@ -3707,19 +3803,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3730,22 +3826,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>33</v>
@@ -3753,19 +3849,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3776,617 +3872,617 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4397,22 +4493,22 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>33</v>
@@ -4420,19 +4516,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4443,24 +4539,944 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
+      <c r="C202" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="196">
   <si>
     <t>Sezione</t>
   </si>
@@ -658,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2403,7 +2403,7 @@
         <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2412,7 +2412,7 @@
         <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2426,7 +2426,7 @@
         <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2435,7 +2435,7 @@
         <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2449,7 +2449,7 @@
         <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2458,7 +2458,7 @@
         <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2472,7 +2472,7 @@
         <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2481,7 +2481,7 @@
         <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2495,7 +2495,7 @@
         <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2504,7 +2504,7 @@
         <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2518,7 +2518,7 @@
         <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2527,7 +2527,7 @@
         <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2541,7 +2541,7 @@
         <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2550,7 +2550,7 @@
         <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2564,7 +2564,7 @@
         <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2573,7 +2573,7 @@
         <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2587,7 +2587,7 @@
         <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2596,7 +2596,7 @@
         <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2619,7 +2619,7 @@
         <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2633,7 +2633,7 @@
         <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2642,7 +2642,7 @@
         <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2653,25 +2653,25 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -2679,19 +2679,19 @@
         <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>33</v>
@@ -2702,16 +2702,16 @@
         <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2725,16 +2725,16 @@
         <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2748,7 +2748,7 @@
         <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -2757,7 +2757,7 @@
         <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2771,7 +2771,7 @@
         <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2780,7 +2780,7 @@
         <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2794,7 +2794,7 @@
         <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -2803,7 +2803,7 @@
         <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2817,16 +2817,16 @@
         <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2840,7 +2840,7 @@
         <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2849,10 +2849,10 @@
         <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2863,7 +2863,7 @@
         <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2872,10 +2872,10 @@
         <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2886,7 +2886,7 @@
         <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2895,10 +2895,10 @@
         <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2909,7 +2909,7 @@
         <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2918,7 +2918,7 @@
         <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>21</v>
@@ -2932,19 +2932,19 @@
         <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>33</v>
@@ -2955,7 +2955,7 @@
         <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
@@ -2964,7 +2964,7 @@
         <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2978,19 +2978,19 @@
         <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -3001,7 +3001,7 @@
         <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3010,7 +3010,7 @@
         <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>21</v>
@@ -3024,7 +3024,7 @@
         <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3033,10 +3033,10 @@
         <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -3047,7 +3047,7 @@
         <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3056,10 +3056,10 @@
         <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -3070,7 +3070,7 @@
         <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3079,10 +3079,10 @@
         <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -3093,7 +3093,7 @@
         <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3102,10 +3102,10 @@
         <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3116,7 +3116,7 @@
         <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3125,10 +3125,10 @@
         <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3139,7 +3139,7 @@
         <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3148,10 +3148,10 @@
         <v>133</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>33</v>
@@ -3162,7 +3162,7 @@
         <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3171,7 +3171,7 @@
         <v>133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>21</v>
@@ -3185,19 +3185,19 @@
         <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3208,7 +3208,7 @@
         <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3217,7 +3217,7 @@
         <v>133</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3231,7 +3231,7 @@
         <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
@@ -3240,7 +3240,7 @@
         <v>133</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3254,16 +3254,16 @@
         <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3277,7 +3277,7 @@
         <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3286,10 +3286,10 @@
         <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>33</v>
@@ -3300,7 +3300,7 @@
         <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3309,10 +3309,10 @@
         <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3323,7 +3323,7 @@
         <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3332,10 +3332,10 @@
         <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3346,7 +3346,7 @@
         <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3355,7 +3355,7 @@
         <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>21</v>
@@ -3366,22 +3366,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>33</v>
@@ -3392,19 +3392,19 @@
         <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>33</v>
@@ -3415,16 +3415,16 @@
         <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3438,16 +3438,16 @@
         <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3461,7 +3461,7 @@
         <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -3470,7 +3470,7 @@
         <v>146</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3484,7 +3484,7 @@
         <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3493,7 +3493,7 @@
         <v>146</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3507,7 +3507,7 @@
         <v>145</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3516,7 +3516,7 @@
         <v>146</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3530,16 +3530,16 @@
         <v>145</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3553,7 +3553,7 @@
         <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3562,10 +3562,10 @@
         <v>146</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>33</v>
@@ -3576,7 +3576,7 @@
         <v>145</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3585,10 +3585,10 @@
         <v>146</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>33</v>
@@ -3599,7 +3599,7 @@
         <v>145</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3608,10 +3608,10 @@
         <v>146</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>33</v>
@@ -3622,7 +3622,7 @@
         <v>145</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3631,7 +3631,7 @@
         <v>146</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>21</v>
@@ -3645,19 +3645,19 @@
         <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>33</v>
@@ -3668,7 +3668,7 @@
         <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
@@ -3677,7 +3677,7 @@
         <v>146</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3691,19 +3691,19 @@
         <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>33</v>
@@ -3714,7 +3714,7 @@
         <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3723,7 +3723,7 @@
         <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>21</v>
@@ -3737,7 +3737,7 @@
         <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3746,10 +3746,10 @@
         <v>146</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>33</v>
@@ -3760,7 +3760,7 @@
         <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3769,10 +3769,10 @@
         <v>146</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>33</v>
@@ -3783,7 +3783,7 @@
         <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3792,10 +3792,10 @@
         <v>146</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>33</v>
@@ -3806,7 +3806,7 @@
         <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3815,10 +3815,10 @@
         <v>146</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>33</v>
@@ -3829,7 +3829,7 @@
         <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3838,10 +3838,10 @@
         <v>146</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>33</v>
@@ -3852,7 +3852,7 @@
         <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3861,10 +3861,10 @@
         <v>146</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>33</v>
@@ -3875,7 +3875,7 @@
         <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3884,7 +3884,7 @@
         <v>146</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>21</v>
@@ -3898,19 +3898,19 @@
         <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>33</v>
@@ -3921,7 +3921,7 @@
         <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -3930,7 +3930,7 @@
         <v>146</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3944,7 +3944,7 @@
         <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3953,7 +3953,7 @@
         <v>146</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3967,16 +3967,16 @@
         <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3990,7 +3990,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3999,10 +3999,10 @@
         <v>146</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>33</v>
@@ -4013,7 +4013,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4022,10 +4022,10 @@
         <v>146</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>33</v>
@@ -4036,7 +4036,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4045,10 +4045,10 @@
         <v>146</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>33</v>
@@ -4059,7 +4059,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4068,7 +4068,7 @@
         <v>146</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>21</v>
@@ -4079,22 +4079,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>33</v>
@@ -4105,16 +4105,16 @@
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4128,16 +4128,16 @@
         <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4151,7 +4151,7 @@
         <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4160,7 +4160,7 @@
         <v>64</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4174,16 +4174,16 @@
         <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4197,16 +4197,16 @@
         <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4220,7 +4220,7 @@
         <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
@@ -4229,7 +4229,7 @@
         <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4243,16 +4243,16 @@
         <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4266,7 +4266,7 @@
         <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -4275,7 +4275,7 @@
         <v>64</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4289,16 +4289,16 @@
         <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4312,7 +4312,7 @@
         <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -4321,7 +4321,7 @@
         <v>148</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4335,16 +4335,16 @@
         <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4358,7 +4358,7 @@
         <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4367,7 +4367,7 @@
         <v>148</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4381,7 +4381,7 @@
         <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4390,7 +4390,7 @@
         <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4404,7 +4404,7 @@
         <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4413,7 +4413,7 @@
         <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4427,16 +4427,16 @@
         <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4450,16 +4450,16 @@
         <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4473,7 +4473,7 @@
         <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4482,7 +4482,7 @@
         <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4496,7 +4496,7 @@
         <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4505,7 +4505,7 @@
         <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4519,7 +4519,7 @@
         <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4528,7 +4528,7 @@
         <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4542,16 +4542,16 @@
         <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4565,7 +4565,7 @@
         <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4574,7 +4574,7 @@
         <v>64</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4585,19 +4585,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4611,7 +4611,7 @@
         <v>165</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>17</v>
@@ -4620,7 +4620,7 @@
         <v>167</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4634,7 +4634,7 @@
         <v>165</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
@@ -4643,7 +4643,7 @@
         <v>167</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4657,7 +4657,7 @@
         <v>165</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
@@ -4666,7 +4666,7 @@
         <v>167</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4680,7 +4680,7 @@
         <v>165</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
@@ -4689,7 +4689,7 @@
         <v>167</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4703,7 +4703,7 @@
         <v>165</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -4712,7 +4712,7 @@
         <v>167</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4726,7 +4726,7 @@
         <v>165</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
@@ -4735,7 +4735,7 @@
         <v>167</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4746,25 +4746,25 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179">
@@ -4772,19 +4772,19 @@
         <v>181</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>184</v>
@@ -4795,16 +4795,16 @@
         <v>181</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4818,16 +4818,16 @@
         <v>181</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4841,7 +4841,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
@@ -4850,7 +4850,7 @@
         <v>182</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4864,7 +4864,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
@@ -4873,7 +4873,7 @@
         <v>182</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
@@ -4896,7 +4896,7 @@
         <v>182</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4910,16 +4910,16 @@
         <v>181</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4933,7 +4933,7 @@
         <v>181</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4942,10 +4942,10 @@
         <v>182</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>184</v>
@@ -4956,7 +4956,7 @@
         <v>181</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4965,10 +4965,10 @@
         <v>182</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>184</v>
@@ -4979,7 +4979,7 @@
         <v>181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4988,10 +4988,10 @@
         <v>182</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>184</v>
@@ -5002,7 +5002,7 @@
         <v>181</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5011,7 +5011,7 @@
         <v>182</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>183</v>
@@ -5025,19 +5025,19 @@
         <v>181</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>184</v>
@@ -5048,7 +5048,7 @@
         <v>181</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>17</v>
@@ -5057,7 +5057,7 @@
         <v>182</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5071,19 +5071,19 @@
         <v>181</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>184</v>
@@ -5094,7 +5094,7 @@
         <v>181</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5103,7 +5103,7 @@
         <v>182</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>183</v>
@@ -5117,7 +5117,7 @@
         <v>181</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5126,10 +5126,10 @@
         <v>182</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>184</v>
@@ -5140,7 +5140,7 @@
         <v>181</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5149,10 +5149,10 @@
         <v>182</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>184</v>
@@ -5163,7 +5163,7 @@
         <v>181</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5172,10 +5172,10 @@
         <v>182</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>184</v>
@@ -5186,7 +5186,7 @@
         <v>181</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5195,10 +5195,10 @@
         <v>182</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>184</v>
@@ -5209,7 +5209,7 @@
         <v>181</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5218,10 +5218,10 @@
         <v>182</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>184</v>
@@ -5232,7 +5232,7 @@
         <v>181</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5241,10 +5241,10 @@
         <v>182</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>184</v>
@@ -5255,7 +5255,7 @@
         <v>181</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5264,7 +5264,7 @@
         <v>182</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>183</v>
@@ -5278,19 +5278,19 @@
         <v>181</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>184</v>
@@ -5301,7 +5301,7 @@
         <v>181</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>17</v>
@@ -5310,7 +5310,7 @@
         <v>182</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5324,7 +5324,7 @@
         <v>181</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>17</v>
@@ -5333,7 +5333,7 @@
         <v>182</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5344,25 +5344,25 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205">
@@ -5370,19 +5370,19 @@
         <v>185</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>33</v>
@@ -5393,19 +5393,19 @@
         <v>185</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>33</v>
@@ -5416,16 +5416,16 @@
         <v>185</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -5439,44 +5439,21 @@
         <v>185</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -1739,7 +1739,7 @@
         <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>73</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -5028,7 +5028,7 @@
         <v>96</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>182</v>
@@ -5051,7 +5051,7 @@
         <v>98</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>182</v>
@@ -5060,7 +5060,7 @@
         <v>99</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>184</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_033.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="200">
   <si>
     <t>Sezione</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -658,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1532,7 +1544,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>73</v>
@@ -1555,7 +1567,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>73</v>
@@ -1601,7 +1613,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>73</v>
@@ -1624,7 +1636,7 @@
         <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>73</v>
@@ -1690,7 +1702,7 @@
         <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1699,7 +1711,7 @@
         <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1713,7 +1725,7 @@
         <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1722,7 +1734,7 @@
         <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1736,7 +1748,7 @@
         <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1969,7 +1981,7 @@
         <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>73</v>
@@ -1992,7 +2004,7 @@
         <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>73</v>
@@ -2041,10 +2053,10 @@
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2058,16 +2070,16 @@
         <v>70</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2078,65 +2090,65 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2159,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2182,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2205,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2228,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2251,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2274,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2297,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2320,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2343,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2366,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2389,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2412,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2435,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2458,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2481,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2504,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2527,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2550,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2561,19 +2573,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2596,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2619,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2642,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2653,114 +2665,114 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>33</v>
@@ -2768,19 +2780,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2803,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2826,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2837,22 +2849,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2860,22 +2872,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2883,22 +2895,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2906,22 +2918,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>33</v>
@@ -2929,19 +2941,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2964,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2987,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>21</v>
@@ -2998,22 +3010,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -3021,22 +3033,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -3044,19 +3056,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>21</v>
@@ -3067,19 +3079,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3090,22 +3102,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3113,22 +3125,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3136,19 +3148,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>21</v>
@@ -3159,22 +3171,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>33</v>
@@ -3182,22 +3194,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3205,19 +3217,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3228,22 +3240,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>33</v>
@@ -3251,19 +3263,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3286,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>21</v>
@@ -3297,22 +3309,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3320,22 +3332,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3343,22 +3355,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>33</v>
@@ -3366,22 +3378,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>33</v>
@@ -3389,19 +3401,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3412,22 +3424,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>33</v>
@@ -3435,19 +3447,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3458,22 +3470,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>33</v>
@@ -3481,22 +3493,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>33</v>
@@ -3504,22 +3516,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>33</v>
@@ -3527,19 +3539,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3550,22 +3562,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>33</v>
@@ -3573,19 +3585,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3596,22 +3608,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>33</v>
@@ -3619,19 +3631,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>21</v>
@@ -3642,19 +3654,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3665,19 +3677,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3688,22 +3700,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>33</v>
@@ -3711,22 +3723,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>33</v>
@@ -3734,22 +3746,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>33</v>
@@ -3757,22 +3769,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>33</v>
@@ -3780,22 +3792,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>33</v>
@@ -3803,19 +3815,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>21</v>
@@ -3826,19 +3838,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3849,22 +3861,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>33</v>
@@ -3872,19 +3884,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>21</v>
@@ -3895,22 +3907,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>33</v>
@@ -3918,19 +3930,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3941,22 +3953,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>33</v>
@@ -3964,19 +3976,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3987,19 +3999,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>21</v>
@@ -4010,19 +4022,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4033,19 +4045,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>21</v>
@@ -4056,19 +4068,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>21</v>
@@ -4079,19 +4091,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4102,19 +4114,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4125,19 +4137,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4148,19 +4160,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4171,22 +4183,22 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>33</v>
@@ -4194,19 +4206,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4217,22 +4229,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>33</v>
@@ -4240,22 +4252,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>33</v>
@@ -4263,19 +4275,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4286,19 +4298,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4309,19 +4321,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4332,19 +4344,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4355,19 +4367,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4378,19 +4390,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4401,19 +4413,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4424,10 +4436,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>17</v>
@@ -4436,7 +4448,7 @@
         <v>64</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4447,19 +4459,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4470,19 +4482,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4493,19 +4505,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4516,19 +4528,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4539,19 +4551,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4562,19 +4574,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4585,19 +4597,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4608,19 +4620,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4631,19 +4643,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4654,19 +4666,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4677,19 +4689,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4700,19 +4712,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4723,19 +4735,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4746,600 +4758,600 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="204">
@@ -5347,22 +5359,22 @@
         <v>185</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
     </row>
     <row r="205">
@@ -5370,22 +5382,22 @@
         <v>185</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="206">
@@ -5393,22 +5405,22 @@
         <v>185</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
     </row>
     <row r="207">
@@ -5416,22 +5428,22 @@
         <v>185</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
     </row>
     <row r="208">
@@ -5439,21 +5451,251 @@
         <v>185</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="C216" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E216" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>33</v>
       </c>
     </row>
